--- a/SeventhTask/ExaminersAverageResult.xlsx
+++ b/SeventhTask/ExaminersAverageResult.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\source\repos\EPAM_Training\SeventhTask\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7AD049BB-930D-46A3-BD71-D0B3A9A2C8BA}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{52A76F6D-2295-4AD5-879D-3D1C03F10F61}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="7848" xr2:uid="{3B347653-0364-42FF-A60C-EBAB4B4F9C32}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="7476" xr2:uid="{52D0D41F-550D-4485-94F7-347CCF0F30E3}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -400,7 +400,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{002894C5-265B-43F7-9F8A-857FCC8D2B4D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49DE0F08-5E15-4E1D-B41D-210A47DDF6BC}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
